--- a/DATA_goal/Junction_Flooding_253.xlsx
+++ b/DATA_goal/Junction_Flooding_253.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41685.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.22</v>
+        <v>2.12</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>111.63</v>
+        <v>11.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.5</v>
+        <v>2.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41685.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.55</v>
+        <v>3.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.75</v>
+        <v>2.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.97</v>
+        <v>4.4</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>176.94</v>
+        <v>17.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.81</v>
+        <v>3.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.32</v>
+        <v>2.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.9</v>
+        <v>2.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.25</v>
+        <v>1.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.35</v>
+        <v>4.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41685.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41685.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.76</v>
+        <v>2.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.31</v>
+        <v>2.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>117.39</v>
+        <v>11.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.77</v>
+        <v>2.28</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41685.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>52.21</v>
+        <v>5.22</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41685.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>20.44</v>
+        <v>2.04</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>73.91</v>
+        <v>7.39</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>18.56</v>
+        <v>1.86</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41685.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.15</v>
+        <v>2.61</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>42.2</v>
+        <v>4.22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>167.77</v>
+        <v>16.78</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.09</v>
+        <v>3.21</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.57</v>
+        <v>2.16</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.26</v>
+        <v>3.83</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41685.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>31.66</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41685.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>43.47</v>
+        <v>4.35</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>35.72</v>
+        <v>3.57</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>56.6</v>
+        <v>5.66</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.16</v>
+        <v>2.42</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.51</v>
+        <v>1.85</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>230.72</v>
+        <v>23.07</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>43.61</v>
+        <v>4.36</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>29.41</v>
+        <v>2.94</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>28.36</v>
+        <v>2.84</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>51.21</v>
+        <v>5.12</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_253.xlsx
+++ b/DATA_goal/Junction_Flooding_253.xlsx
@@ -452,12 +452,12 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>44934.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>2.29</v>
+        <v>22.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44934.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>204.42</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.26</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.87</v>
+        <v>48.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44934.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.69</v>
+        <v>46.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.83</v>
+        <v>38.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.56</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.05</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.8</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.02</v>
+        <v>250.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.73</v>
+        <v>47.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.17</v>
+        <v>31.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.57</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.19</v>
+        <v>31.91</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.95</v>
+        <v>59.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44934.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.07</v>
+        <v>40.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.33</v>
+        <v>33.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.84</v>
+        <v>58.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.59</v>
+        <v>215.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.1</v>
+        <v>41.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.75</v>
+        <v>27.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.3</v>
+        <v>52.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_253.xlsx
+++ b/DATA_goal/Junction_Flooding_253.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44934.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.97</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.02</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.75</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.89</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.29</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.1</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.7</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.94</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.8</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.49</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44934.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.64</v>
+        <v>12.635</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.856</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.47</v>
+        <v>38.474</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.11</v>
+        <v>31.115</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.55</v>
+        <v>53.547</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>9.33</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.75</v>
+        <v>13.747</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.39</v>
+        <v>15.392</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.11</v>
+        <v>16.107</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.47</v>
+        <v>4.469</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.63</v>
+        <v>19.626</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.954</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.115</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.42</v>
+        <v>204.419</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.92</v>
+        <v>38.919</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.85</v>
+        <v>25.848</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.43</v>
+        <v>13.429</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.15</v>
+        <v>26.146</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.23</v>
+        <v>10.228</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.02</v>
+        <v>16.024</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>48.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.11</v>
+        <v>7.106</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44934.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.78</v>
+        <v>15.776</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.496</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46.94</v>
+        <v>46.944</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.3</v>
+        <v>38.303</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.59999999999999</v>
+        <v>65.60299999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.54</v>
+        <v>11.542</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.05</v>
+        <v>17.052</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>18.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.8</v>
+        <v>19.802</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.43</v>
+        <v>5.435</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.01</v>
+        <v>24.012</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.35</v>
+        <v>14.349</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>250.2</v>
+        <v>250.202</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.31</v>
+        <v>47.313</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.68</v>
+        <v>31.685</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.57</v>
+        <v>16.568</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.64</v>
+        <v>2.642</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.91</v>
+        <v>31.909</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.3</v>
+        <v>12.299</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.45</v>
+        <v>14.447</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.7</v>
+        <v>19.701</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>59.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.74</v>
+        <v>8.743</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44934.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>70.26000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.96</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>63.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_253.xlsx
+++ b/DATA_goal/Junction_Flooding_253.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,82 +967,82 @@
         <v>44934.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.73</v>
+        <v>13.731</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.183</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.71</v>
+        <v>40.711</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.26</v>
+        <v>33.256</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.746</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.36</v>
+        <v>58.359</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.04</v>
+        <v>10.036</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.82</v>
+        <v>14.816</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.34</v>
+        <v>16.339</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>17.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.71</v>
+        <v>4.711</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.84</v>
+        <v>20.837</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.42</v>
+        <v>12.415</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.787</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.87</v>
+        <v>215.868</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.04</v>
+        <v>41.038</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.51</v>
+        <v>27.515</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.4</v>
+        <v>14.397</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.24</v>
+        <v>2.243</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.15</v>
+        <v>28.145</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>10.64</v>
@@ -1051,19 +1051,123 @@
         <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.11</v>
+        <v>17.113</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.98</v>
+        <v>52.979</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.59</v>
+        <v>7.588</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44934.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>70.26000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>267.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>63.74</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_253.xlsx
+++ b/DATA_goal/Junction_Flooding_253.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,82 +967,82 @@
         <v>44934.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.737</v>
+        <v>18.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.731</v>
+        <v>13.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.183</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.711</v>
+        <v>40.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.256</v>
+        <v>33.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.746</v>
+        <v>14.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.359</v>
+        <v>58.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.687</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.036</v>
+        <v>10.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.816</v>
+        <v>14.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.339</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>17.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.837</v>
+        <v>20.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.415</v>
+        <v>12.42</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.829</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.868</v>
+        <v>215.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.038</v>
+        <v>41.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.534</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.515</v>
+        <v>27.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.397</v>
+        <v>14.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.243</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.145</v>
+        <v>28.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.955</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>10.64</v>
@@ -1051,123 +1051,19 @@
         <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.113</v>
+        <v>17.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.979</v>
+        <v>52.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.588</v>
+        <v>7.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.921</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44934.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>70.26000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.96</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>63.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.83</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>
